--- a/www/IndicatorsPerCountry/Libya_GDPperCapita_TerritorialRef_1973_2012_CCode_434.xlsx
+++ b/www/IndicatorsPerCountry/Libya_GDPperCapita_TerritorialRef_1973_2012_CCode_434.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Libya_GDPperCapita_TerritorialRef_1973_2012_CCode_434.xlsx
+++ b/www/IndicatorsPerCountry/Libya_GDPperCapita_TerritorialRef_1973_2012_CCode_434.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>963</t>
-  </si>
-  <si>
-    <t>949</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>1830</t>
-  </si>
-  <si>
-    <t>1936</t>
-  </si>
-  <si>
-    <t>2473</t>
-  </si>
-  <si>
-    <t>3212</t>
-  </si>
-  <si>
-    <t>4366</t>
-  </si>
-  <si>
-    <t>5378</t>
-  </si>
-  <si>
-    <t>6107</t>
-  </si>
-  <si>
-    <t>6545</t>
-  </si>
-  <si>
-    <t>8395</t>
-  </si>
-  <si>
-    <t>9043</t>
-  </si>
-  <si>
-    <t>9115</t>
-  </si>
-  <si>
-    <t>8252</t>
-  </si>
-  <si>
-    <t>6979</t>
-  </si>
-  <si>
-    <t>6664</t>
-  </si>
-  <si>
-    <t>5379</t>
-  </si>
-  <si>
-    <t>5515</t>
-  </si>
-  <si>
-    <t>6540</t>
-  </si>
-  <si>
-    <t>6945</t>
-  </si>
-  <si>
-    <t>6991</t>
-  </si>
-  <si>
-    <t>7565</t>
-  </si>
-  <si>
-    <t>7272</t>
-  </si>
-  <si>
-    <t>5648</t>
-  </si>
-  <si>
-    <t>5234</t>
-  </si>
-  <si>
-    <t>4968</t>
-  </si>
-  <si>
-    <t>4397</t>
-  </si>
-  <si>
-    <t>3953</t>
-  </si>
-  <si>
-    <t>3586</t>
-  </si>
-  <si>
-    <t>3380</t>
-  </si>
-  <si>
-    <t>3303</t>
-  </si>
-  <si>
-    <t>3232</t>
-  </si>
-  <si>
-    <t>3087.08701455</t>
-  </si>
-  <si>
-    <t>2825.02350463</t>
-  </si>
-  <si>
-    <t>2636.72754342</t>
-  </si>
-  <si>
-    <t>2453.03561761</t>
-  </si>
-  <si>
-    <t>2363.35001593</t>
-  </si>
-  <si>
-    <t>2321.31822686</t>
-  </si>
-  <si>
-    <t>2381.3949042</t>
-  </si>
-  <si>
-    <t>2466.76765406</t>
-  </si>
-  <si>
-    <t>2321.81343517</t>
-  </si>
-  <si>
-    <t>2291.41825613</t>
-  </si>
-  <si>
-    <t>2312.99299182</t>
-  </si>
-  <si>
-    <t>2390.94805766</t>
-  </si>
-  <si>
-    <t>2366.54537462</t>
-  </si>
-  <si>
-    <t>2446.7755844</t>
-  </si>
-  <si>
-    <t>2508.5300142</t>
-  </si>
-  <si>
-    <t>2702.59816778</t>
-  </si>
-  <si>
-    <t>2817.6060212</t>
-  </si>
-  <si>
-    <t>2960.61862071</t>
-  </si>
-  <si>
-    <t>2993.56337709</t>
+    <t>620</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>2322</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>3889</t>
+  </si>
+  <si>
+    <t>4417</t>
+  </si>
+  <si>
+    <t>4733</t>
+  </si>
+  <si>
+    <t>6071</t>
+  </si>
+  <si>
+    <t>6539</t>
+  </si>
+  <si>
+    <t>6591</t>
+  </si>
+  <si>
+    <t>6008</t>
+  </si>
+  <si>
+    <t>6237</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>6923</t>
+  </si>
+  <si>
+    <t>6872</t>
+  </si>
+  <si>
+    <t>8142</t>
+  </si>
+  <si>
+    <t>8682</t>
+  </si>
+  <si>
+    <t>8730</t>
+  </si>
+  <si>
+    <t>9086</t>
+  </si>
+  <si>
+    <t>8741</t>
+  </si>
+  <si>
+    <t>6760</t>
+  </si>
+  <si>
+    <t>6661</t>
+  </si>
+  <si>
+    <t>5695</t>
+  </si>
+  <si>
+    <t>6092</t>
+  </si>
+  <si>
+    <t>5370</t>
+  </si>
+  <si>
+    <t>4465</t>
+  </si>
+  <si>
+    <t>4670</t>
+  </si>
+  <si>
+    <t>4873</t>
+  </si>
+  <si>
+    <t>4921</t>
+  </si>
+  <si>
+    <t>5977.33692478306</t>
+  </si>
+  <si>
+    <t>6113.35350838343</t>
+  </si>
+  <si>
+    <t>6190.68138314581</t>
+  </si>
+  <si>
+    <t>6645.07657054471</t>
+  </si>
+  <si>
+    <t>6898.95237639788</t>
+  </si>
+  <si>
+    <t>7543.93543073536</t>
+  </si>
+  <si>
+    <t>8422.2146757838</t>
+  </si>
+  <si>
+    <t>8545.48067270692</t>
+  </si>
+  <si>
+    <t>9064.06731938906</t>
+  </si>
+  <si>
+    <t>9770.98043889931</t>
+  </si>
+  <si>
+    <t>10354.4825766246</t>
+  </si>
+  <si>
+    <t>10787.6747325271</t>
+  </si>
+  <si>
+    <t>12870.5745261769</t>
+  </si>
+  <si>
+    <t>14193.2590078302</t>
+  </si>
+  <si>
+    <t>16538.5566293337</t>
+  </si>
+  <si>
+    <t>18657.0616505443</t>
+  </si>
+  <si>
+    <t>20731.7177828003</t>
+  </si>
+  <si>
+    <t>25140.5988288157</t>
+  </si>
+  <si>
+    <t>26403.7880429989</t>
+  </si>
+  <si>
+    <t>29157.1420833813</t>
+  </si>
+  <si>
+    <t>12893</t>
+  </si>
+  <si>
+    <t>29766</t>
+  </si>
+  <si>
+    <t>13326</t>
+  </si>
+  <si>
+    <t>9736</t>
+  </si>
+  <si>
+    <t>8514</t>
+  </si>
+  <si>
+    <t>8096</t>
   </si>
   <si>
     <t>Description</t>
@@ -889,7 +910,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -906,7 +927,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -923,7 +944,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -940,7 +961,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -957,7 +978,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -974,7 +995,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -991,7 +1012,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1008,7 +1029,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -1025,7 +1046,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1042,7 +1063,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1059,7 +1080,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1076,7 +1097,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1093,7 +1114,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1131,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1127,7 +1148,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -1144,7 +1165,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1161,7 +1182,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -1178,7 +1199,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -1195,7 +1216,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -1212,7 +1233,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55">
@@ -1229,7 +1250,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -1246,7 +1267,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1263,7 +1284,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -1280,7 +1301,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -1297,7 +1318,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
@@ -1314,7 +1335,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1332,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
